--- a/backend/fms_core/static/submission_templates/Sample_submission_vtest.xlsx
+++ b/backend/fms_core/static/submission_templates/Sample_submission_vtest.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="455">
   <si>
     <t xml:space="preserve">Sample Submission Template</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t xml:space="preserve">Reception Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phenotype</t>
   </si>
   <si>
     <t xml:space="preserve">Comment</t>
@@ -1672,13 +1669,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X1000"/>
+  <dimension ref="A1:W1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="93" zoomScaleNormal="93" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.4921875" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.16"/>
@@ -1686,12 +1683,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="16.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13"/>
@@ -1700,12 +1697,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="21.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="0" width="9.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="0" width="9.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1715,7 +1713,7 @@
       <c r="N1" s="2"/>
       <c r="V1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1723,7 +1721,7 @@
       <c r="N2" s="2"/>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1733,7 +1731,7 @@
       <c r="N3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1743,7 +1741,7 @@
       <c r="N4" s="2"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1751,7 +1749,7 @@
       <c r="N5" s="2"/>
       <c r="V5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1759,7 +1757,7 @@
       <c r="N6" s="2"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1828,9 +1826,6 @@
       </c>
       <c r="W7" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1857,7 +1852,6 @@
       <c r="U8" s="6"/>
       <c r="V8" s="5"/>
       <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
@@ -1883,7 +1877,6 @@
       <c r="U9" s="6"/>
       <c r="V9" s="5"/>
       <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
@@ -1909,7 +1902,6 @@
       <c r="U10" s="6"/>
       <c r="V10" s="5"/>
       <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
@@ -1935,7 +1927,6 @@
       <c r="U11" s="6"/>
       <c r="V11" s="5"/>
       <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
@@ -1961,7 +1952,6 @@
       <c r="U12" s="6"/>
       <c r="V12" s="5"/>
       <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5"/>
@@ -1987,7 +1977,6 @@
       <c r="U13" s="6"/>
       <c r="V13" s="5"/>
       <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
@@ -2013,7 +2002,6 @@
       <c r="U14" s="6"/>
       <c r="V14" s="5"/>
       <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
@@ -2039,7 +2027,6 @@
       <c r="U15" s="6"/>
       <c r="V15" s="5"/>
       <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
@@ -2065,7 +2052,6 @@
       <c r="U16" s="6"/>
       <c r="V16" s="5"/>
       <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
@@ -2091,7 +2077,6 @@
       <c r="U17" s="6"/>
       <c r="V17" s="5"/>
       <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
@@ -2117,7 +2102,6 @@
       <c r="U18" s="6"/>
       <c r="V18" s="5"/>
       <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
@@ -2143,7 +2127,6 @@
       <c r="U19" s="6"/>
       <c r="V19" s="5"/>
       <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
@@ -2169,7 +2152,6 @@
       <c r="U20" s="6"/>
       <c r="V20" s="5"/>
       <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
@@ -2195,7 +2177,6 @@
       <c r="U21" s="6"/>
       <c r="V21" s="5"/>
       <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
@@ -2221,7 +2202,6 @@
       <c r="U22" s="6"/>
       <c r="V22" s="5"/>
       <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
@@ -2247,7 +2227,6 @@
       <c r="U23" s="6"/>
       <c r="V23" s="5"/>
       <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
@@ -2273,7 +2252,6 @@
       <c r="U24" s="6"/>
       <c r="V24" s="5"/>
       <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
@@ -2299,7 +2277,6 @@
       <c r="U25" s="6"/>
       <c r="V25" s="5"/>
       <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
@@ -2325,7 +2302,6 @@
       <c r="U26" s="6"/>
       <c r="V26" s="5"/>
       <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5"/>
@@ -2351,7 +2327,6 @@
       <c r="U27" s="6"/>
       <c r="V27" s="5"/>
       <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5"/>
@@ -2377,7 +2352,6 @@
       <c r="U28" s="6"/>
       <c r="V28" s="5"/>
       <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5"/>
@@ -2403,7 +2377,6 @@
       <c r="U29" s="6"/>
       <c r="V29" s="5"/>
       <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="5"/>
@@ -2429,7 +2402,6 @@
       <c r="U30" s="6"/>
       <c r="V30" s="5"/>
       <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="5"/>
@@ -2455,7 +2427,6 @@
       <c r="U31" s="6"/>
       <c r="V31" s="5"/>
       <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
@@ -2481,7 +2452,6 @@
       <c r="U32" s="6"/>
       <c r="V32" s="5"/>
       <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="5"/>
@@ -2507,7 +2477,6 @@
       <c r="U33" s="6"/>
       <c r="V33" s="5"/>
       <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="5"/>
@@ -2533,7 +2502,6 @@
       <c r="U34" s="6"/>
       <c r="V34" s="5"/>
       <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="5"/>
@@ -2559,7 +2527,6 @@
       <c r="U35" s="6"/>
       <c r="V35" s="5"/>
       <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="5"/>
@@ -2585,7 +2552,6 @@
       <c r="U36" s="6"/>
       <c r="V36" s="5"/>
       <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="5"/>
@@ -2611,7 +2577,6 @@
       <c r="U37" s="6"/>
       <c r="V37" s="5"/>
       <c r="W37" s="6"/>
-      <c r="X37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
@@ -2637,7 +2602,6 @@
       <c r="U38" s="6"/>
       <c r="V38" s="5"/>
       <c r="W38" s="6"/>
-      <c r="X38" s="6"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="5"/>
@@ -2663,7 +2627,6 @@
       <c r="U39" s="6"/>
       <c r="V39" s="5"/>
       <c r="W39" s="6"/>
-      <c r="X39" s="6"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="5"/>
@@ -2689,7 +2652,6 @@
       <c r="U40" s="6"/>
       <c r="V40" s="5"/>
       <c r="W40" s="6"/>
-      <c r="X40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="5"/>
@@ -2715,7 +2677,6 @@
       <c r="U41" s="6"/>
       <c r="V41" s="5"/>
       <c r="W41" s="6"/>
-      <c r="X41" s="6"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="5"/>
@@ -2741,7 +2702,6 @@
       <c r="U42" s="6"/>
       <c r="V42" s="5"/>
       <c r="W42" s="6"/>
-      <c r="X42" s="6"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="5"/>
@@ -2767,7 +2727,6 @@
       <c r="U43" s="6"/>
       <c r="V43" s="5"/>
       <c r="W43" s="6"/>
-      <c r="X43" s="6"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="5"/>
@@ -2793,7 +2752,6 @@
       <c r="U44" s="6"/>
       <c r="V44" s="5"/>
       <c r="W44" s="6"/>
-      <c r="X44" s="6"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="5"/>
@@ -2819,7 +2777,6 @@
       <c r="U45" s="6"/>
       <c r="V45" s="5"/>
       <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="5"/>
@@ -2845,7 +2802,6 @@
       <c r="U46" s="6"/>
       <c r="V46" s="5"/>
       <c r="W46" s="6"/>
-      <c r="X46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="5"/>
@@ -2871,7 +2827,6 @@
       <c r="U47" s="6"/>
       <c r="V47" s="5"/>
       <c r="W47" s="6"/>
-      <c r="X47" s="6"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="5"/>
@@ -2897,7 +2852,6 @@
       <c r="U48" s="6"/>
       <c r="V48" s="5"/>
       <c r="W48" s="6"/>
-      <c r="X48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="5"/>
@@ -2923,7 +2877,6 @@
       <c r="U49" s="6"/>
       <c r="V49" s="5"/>
       <c r="W49" s="6"/>
-      <c r="X49" s="6"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="5"/>
@@ -2949,7 +2902,6 @@
       <c r="U50" s="6"/>
       <c r="V50" s="5"/>
       <c r="W50" s="6"/>
-      <c r="X50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="5"/>
@@ -2975,7 +2927,6 @@
       <c r="U51" s="6"/>
       <c r="V51" s="5"/>
       <c r="W51" s="6"/>
-      <c r="X51" s="6"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="5"/>
@@ -3001,7 +2952,6 @@
       <c r="U52" s="6"/>
       <c r="V52" s="5"/>
       <c r="W52" s="6"/>
-      <c r="X52" s="6"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="5"/>
@@ -3027,7 +2977,6 @@
       <c r="U53" s="6"/>
       <c r="V53" s="5"/>
       <c r="W53" s="6"/>
-      <c r="X53" s="6"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="5"/>
@@ -3053,7 +3002,6 @@
       <c r="U54" s="6"/>
       <c r="V54" s="5"/>
       <c r="W54" s="6"/>
-      <c r="X54" s="6"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="5"/>
@@ -3079,7 +3027,6 @@
       <c r="U55" s="6"/>
       <c r="V55" s="5"/>
       <c r="W55" s="6"/>
-      <c r="X55" s="6"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="5"/>
@@ -3105,7 +3052,6 @@
       <c r="U56" s="6"/>
       <c r="V56" s="5"/>
       <c r="W56" s="6"/>
-      <c r="X56" s="6"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="5"/>
@@ -3131,7 +3077,6 @@
       <c r="U57" s="6"/>
       <c r="V57" s="5"/>
       <c r="W57" s="6"/>
-      <c r="X57" s="6"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="5"/>
@@ -3157,7 +3102,6 @@
       <c r="U58" s="6"/>
       <c r="V58" s="5"/>
       <c r="W58" s="6"/>
-      <c r="X58" s="6"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="5"/>
@@ -3183,7 +3127,6 @@
       <c r="U59" s="6"/>
       <c r="V59" s="5"/>
       <c r="W59" s="6"/>
-      <c r="X59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="5"/>
@@ -3209,7 +3152,6 @@
       <c r="U60" s="6"/>
       <c r="V60" s="5"/>
       <c r="W60" s="6"/>
-      <c r="X60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="5"/>
@@ -3235,7 +3177,6 @@
       <c r="U61" s="6"/>
       <c r="V61" s="5"/>
       <c r="W61" s="6"/>
-      <c r="X61" s="6"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="5"/>
@@ -3261,7 +3202,6 @@
       <c r="U62" s="6"/>
       <c r="V62" s="5"/>
       <c r="W62" s="6"/>
-      <c r="X62" s="6"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="5"/>
@@ -3287,7 +3227,6 @@
       <c r="U63" s="6"/>
       <c r="V63" s="5"/>
       <c r="W63" s="6"/>
-      <c r="X63" s="6"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="5"/>
@@ -3313,7 +3252,6 @@
       <c r="U64" s="6"/>
       <c r="V64" s="5"/>
       <c r="W64" s="6"/>
-      <c r="X64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="5"/>
@@ -3339,7 +3277,6 @@
       <c r="U65" s="6"/>
       <c r="V65" s="5"/>
       <c r="W65" s="6"/>
-      <c r="X65" s="6"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="5"/>
@@ -3365,7 +3302,6 @@
       <c r="U66" s="6"/>
       <c r="V66" s="5"/>
       <c r="W66" s="6"/>
-      <c r="X66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="5"/>
@@ -3391,7 +3327,6 @@
       <c r="U67" s="6"/>
       <c r="V67" s="5"/>
       <c r="W67" s="6"/>
-      <c r="X67" s="6"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="5"/>
@@ -3417,7 +3352,6 @@
       <c r="U68" s="6"/>
       <c r="V68" s="5"/>
       <c r="W68" s="6"/>
-      <c r="X68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="5"/>
@@ -3443,7 +3377,6 @@
       <c r="U69" s="6"/>
       <c r="V69" s="5"/>
       <c r="W69" s="6"/>
-      <c r="X69" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="5"/>
@@ -3469,7 +3402,6 @@
       <c r="U70" s="6"/>
       <c r="V70" s="5"/>
       <c r="W70" s="6"/>
-      <c r="X70" s="6"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="5"/>
@@ -3495,7 +3427,6 @@
       <c r="U71" s="6"/>
       <c r="V71" s="5"/>
       <c r="W71" s="6"/>
-      <c r="X71" s="6"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="5"/>
@@ -3521,7 +3452,6 @@
       <c r="U72" s="6"/>
       <c r="V72" s="5"/>
       <c r="W72" s="6"/>
-      <c r="X72" s="6"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="5"/>
@@ -3547,7 +3477,6 @@
       <c r="U73" s="6"/>
       <c r="V73" s="5"/>
       <c r="W73" s="6"/>
-      <c r="X73" s="6"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="5"/>
@@ -3573,7 +3502,6 @@
       <c r="U74" s="6"/>
       <c r="V74" s="5"/>
       <c r="W74" s="6"/>
-      <c r="X74" s="6"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="5"/>
@@ -3599,7 +3527,6 @@
       <c r="U75" s="6"/>
       <c r="V75" s="5"/>
       <c r="W75" s="6"/>
-      <c r="X75" s="6"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="5"/>
@@ -3625,7 +3552,6 @@
       <c r="U76" s="6"/>
       <c r="V76" s="5"/>
       <c r="W76" s="6"/>
-      <c r="X76" s="6"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="5"/>
@@ -3651,7 +3577,6 @@
       <c r="U77" s="6"/>
       <c r="V77" s="5"/>
       <c r="W77" s="6"/>
-      <c r="X77" s="6"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="5"/>
@@ -3677,7 +3602,6 @@
       <c r="U78" s="6"/>
       <c r="V78" s="5"/>
       <c r="W78" s="6"/>
-      <c r="X78" s="6"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="5"/>
@@ -3703,7 +3627,6 @@
       <c r="U79" s="6"/>
       <c r="V79" s="5"/>
       <c r="W79" s="6"/>
-      <c r="X79" s="6"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="5"/>
@@ -3729,7 +3652,6 @@
       <c r="U80" s="6"/>
       <c r="V80" s="5"/>
       <c r="W80" s="6"/>
-      <c r="X80" s="6"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="5"/>
@@ -3755,7 +3677,6 @@
       <c r="U81" s="6"/>
       <c r="V81" s="5"/>
       <c r="W81" s="6"/>
-      <c r="X81" s="6"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="5"/>
@@ -3781,7 +3702,6 @@
       <c r="U82" s="6"/>
       <c r="V82" s="5"/>
       <c r="W82" s="6"/>
-      <c r="X82" s="6"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="5"/>
@@ -3807,7 +3727,6 @@
       <c r="U83" s="6"/>
       <c r="V83" s="5"/>
       <c r="W83" s="6"/>
-      <c r="X83" s="6"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="5"/>
@@ -3833,7 +3752,6 @@
       <c r="U84" s="6"/>
       <c r="V84" s="5"/>
       <c r="W84" s="6"/>
-      <c r="X84" s="6"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="5"/>
@@ -3859,7 +3777,6 @@
       <c r="U85" s="6"/>
       <c r="V85" s="5"/>
       <c r="W85" s="6"/>
-      <c r="X85" s="6"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="5"/>
@@ -3885,7 +3802,6 @@
       <c r="U86" s="6"/>
       <c r="V86" s="5"/>
       <c r="W86" s="6"/>
-      <c r="X86" s="6"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="5"/>
@@ -3911,7 +3827,6 @@
       <c r="U87" s="6"/>
       <c r="V87" s="5"/>
       <c r="W87" s="6"/>
-      <c r="X87" s="6"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="5"/>
@@ -3937,7 +3852,6 @@
       <c r="U88" s="6"/>
       <c r="V88" s="5"/>
       <c r="W88" s="6"/>
-      <c r="X88" s="6"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="5"/>
@@ -3963,7 +3877,6 @@
       <c r="U89" s="6"/>
       <c r="V89" s="5"/>
       <c r="W89" s="6"/>
-      <c r="X89" s="6"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="5"/>
@@ -3989,7 +3902,6 @@
       <c r="U90" s="6"/>
       <c r="V90" s="5"/>
       <c r="W90" s="6"/>
-      <c r="X90" s="6"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="5"/>
@@ -4015,7 +3927,6 @@
       <c r="U91" s="6"/>
       <c r="V91" s="5"/>
       <c r="W91" s="6"/>
-      <c r="X91" s="6"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="5"/>
@@ -4041,7 +3952,6 @@
       <c r="U92" s="6"/>
       <c r="V92" s="5"/>
       <c r="W92" s="6"/>
-      <c r="X92" s="6"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="5"/>
@@ -4067,7 +3977,6 @@
       <c r="U93" s="6"/>
       <c r="V93" s="5"/>
       <c r="W93" s="6"/>
-      <c r="X93" s="6"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="5"/>
@@ -4093,7 +4002,6 @@
       <c r="U94" s="6"/>
       <c r="V94" s="5"/>
       <c r="W94" s="6"/>
-      <c r="X94" s="6"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="5"/>
@@ -4119,7 +4027,6 @@
       <c r="U95" s="6"/>
       <c r="V95" s="5"/>
       <c r="W95" s="6"/>
-      <c r="X95" s="6"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="5"/>
@@ -4145,7 +4052,6 @@
       <c r="U96" s="6"/>
       <c r="V96" s="5"/>
       <c r="W96" s="6"/>
-      <c r="X96" s="6"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="5"/>
@@ -4171,7 +4077,6 @@
       <c r="U97" s="6"/>
       <c r="V97" s="5"/>
       <c r="W97" s="6"/>
-      <c r="X97" s="6"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="5"/>
@@ -4197,7 +4102,6 @@
       <c r="U98" s="6"/>
       <c r="V98" s="5"/>
       <c r="W98" s="6"/>
-      <c r="X98" s="6"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="5"/>
@@ -4223,7 +4127,6 @@
       <c r="U99" s="6"/>
       <c r="V99" s="5"/>
       <c r="W99" s="6"/>
-      <c r="X99" s="6"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="5"/>
@@ -4249,7 +4152,6 @@
       <c r="U100" s="6"/>
       <c r="V100" s="5"/>
       <c r="W100" s="6"/>
-      <c r="X100" s="6"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="5"/>
@@ -4275,7 +4177,6 @@
       <c r="U101" s="6"/>
       <c r="V101" s="5"/>
       <c r="W101" s="6"/>
-      <c r="X101" s="6"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="5"/>
@@ -4301,7 +4202,6 @@
       <c r="U102" s="6"/>
       <c r="V102" s="5"/>
       <c r="W102" s="6"/>
-      <c r="X102" s="6"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="5"/>
@@ -4327,7 +4227,6 @@
       <c r="U103" s="6"/>
       <c r="V103" s="5"/>
       <c r="W103" s="6"/>
-      <c r="X103" s="6"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="5"/>
@@ -4353,7 +4252,6 @@
       <c r="U104" s="6"/>
       <c r="V104" s="5"/>
       <c r="W104" s="6"/>
-      <c r="X104" s="6"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="5"/>
@@ -4379,7 +4277,6 @@
       <c r="U105" s="6"/>
       <c r="V105" s="5"/>
       <c r="W105" s="6"/>
-      <c r="X105" s="6"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="5"/>
@@ -4405,7 +4302,6 @@
       <c r="U106" s="6"/>
       <c r="V106" s="5"/>
       <c r="W106" s="6"/>
-      <c r="X106" s="6"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="5"/>
@@ -4431,7 +4327,6 @@
       <c r="U107" s="6"/>
       <c r="V107" s="5"/>
       <c r="W107" s="6"/>
-      <c r="X107" s="6"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="5"/>
@@ -4457,7 +4352,6 @@
       <c r="U108" s="6"/>
       <c r="V108" s="5"/>
       <c r="W108" s="6"/>
-      <c r="X108" s="6"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="5"/>
@@ -4483,7 +4377,6 @@
       <c r="U109" s="6"/>
       <c r="V109" s="5"/>
       <c r="W109" s="6"/>
-      <c r="X109" s="6"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="5"/>
@@ -4509,7 +4402,6 @@
       <c r="U110" s="6"/>
       <c r="V110" s="5"/>
       <c r="W110" s="6"/>
-      <c r="X110" s="6"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="5"/>
@@ -4535,7 +4427,6 @@
       <c r="U111" s="6"/>
       <c r="V111" s="5"/>
       <c r="W111" s="6"/>
-      <c r="X111" s="6"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="5"/>
@@ -4561,7 +4452,6 @@
       <c r="U112" s="6"/>
       <c r="V112" s="5"/>
       <c r="W112" s="6"/>
-      <c r="X112" s="6"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="5"/>
@@ -4587,7 +4477,6 @@
       <c r="U113" s="6"/>
       <c r="V113" s="5"/>
       <c r="W113" s="6"/>
-      <c r="X113" s="6"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="5"/>
@@ -4613,7 +4502,6 @@
       <c r="U114" s="6"/>
       <c r="V114" s="5"/>
       <c r="W114" s="6"/>
-      <c r="X114" s="6"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="5"/>
@@ -4639,7 +4527,6 @@
       <c r="U115" s="6"/>
       <c r="V115" s="5"/>
       <c r="W115" s="6"/>
-      <c r="X115" s="6"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="5"/>
@@ -4665,7 +4552,6 @@
       <c r="U116" s="6"/>
       <c r="V116" s="5"/>
       <c r="W116" s="6"/>
-      <c r="X116" s="6"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="5"/>
@@ -4691,7 +4577,6 @@
       <c r="U117" s="6"/>
       <c r="V117" s="5"/>
       <c r="W117" s="6"/>
-      <c r="X117" s="6"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="5"/>
@@ -4717,7 +4602,6 @@
       <c r="U118" s="6"/>
       <c r="V118" s="5"/>
       <c r="W118" s="6"/>
-      <c r="X118" s="6"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="5"/>
@@ -4743,7 +4627,6 @@
       <c r="U119" s="6"/>
       <c r="V119" s="5"/>
       <c r="W119" s="6"/>
-      <c r="X119" s="6"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="5"/>
@@ -4769,7 +4652,6 @@
       <c r="U120" s="6"/>
       <c r="V120" s="5"/>
       <c r="W120" s="6"/>
-      <c r="X120" s="6"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="5"/>
@@ -4795,7 +4677,6 @@
       <c r="U121" s="6"/>
       <c r="V121" s="5"/>
       <c r="W121" s="6"/>
-      <c r="X121" s="6"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="5"/>
@@ -4821,7 +4702,6 @@
       <c r="U122" s="6"/>
       <c r="V122" s="5"/>
       <c r="W122" s="6"/>
-      <c r="X122" s="6"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="5"/>
@@ -4847,7 +4727,6 @@
       <c r="U123" s="6"/>
       <c r="V123" s="5"/>
       <c r="W123" s="6"/>
-      <c r="X123" s="6"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="5"/>
@@ -4873,7 +4752,6 @@
       <c r="U124" s="6"/>
       <c r="V124" s="5"/>
       <c r="W124" s="6"/>
-      <c r="X124" s="6"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="5"/>
@@ -4899,7 +4777,6 @@
       <c r="U125" s="6"/>
       <c r="V125" s="5"/>
       <c r="W125" s="6"/>
-      <c r="X125" s="6"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="5"/>
@@ -4925,7 +4802,6 @@
       <c r="U126" s="6"/>
       <c r="V126" s="5"/>
       <c r="W126" s="6"/>
-      <c r="X126" s="6"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="5"/>
@@ -4951,7 +4827,6 @@
       <c r="U127" s="6"/>
       <c r="V127" s="5"/>
       <c r="W127" s="6"/>
-      <c r="X127" s="6"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="5"/>
@@ -4977,7 +4852,6 @@
       <c r="U128" s="6"/>
       <c r="V128" s="5"/>
       <c r="W128" s="6"/>
-      <c r="X128" s="6"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="5"/>
@@ -5003,7 +4877,6 @@
       <c r="U129" s="6"/>
       <c r="V129" s="5"/>
       <c r="W129" s="6"/>
-      <c r="X129" s="6"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="5"/>
@@ -5029,7 +4902,6 @@
       <c r="U130" s="6"/>
       <c r="V130" s="5"/>
       <c r="W130" s="6"/>
-      <c r="X130" s="6"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="5"/>
@@ -5055,7 +4927,6 @@
       <c r="U131" s="6"/>
       <c r="V131" s="5"/>
       <c r="W131" s="6"/>
-      <c r="X131" s="6"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="5"/>
@@ -5081,7 +4952,6 @@
       <c r="U132" s="6"/>
       <c r="V132" s="5"/>
       <c r="W132" s="6"/>
-      <c r="X132" s="6"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="5"/>
@@ -5107,7 +4977,6 @@
       <c r="U133" s="6"/>
       <c r="V133" s="5"/>
       <c r="W133" s="6"/>
-      <c r="X133" s="6"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="5"/>
@@ -5133,7 +5002,6 @@
       <c r="U134" s="6"/>
       <c r="V134" s="5"/>
       <c r="W134" s="6"/>
-      <c r="X134" s="6"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="5"/>
@@ -5159,7 +5027,6 @@
       <c r="U135" s="6"/>
       <c r="V135" s="5"/>
       <c r="W135" s="6"/>
-      <c r="X135" s="6"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="5"/>
@@ -5185,7 +5052,6 @@
       <c r="U136" s="6"/>
       <c r="V136" s="5"/>
       <c r="W136" s="6"/>
-      <c r="X136" s="6"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="5"/>
@@ -5211,7 +5077,6 @@
       <c r="U137" s="6"/>
       <c r="V137" s="5"/>
       <c r="W137" s="6"/>
-      <c r="X137" s="6"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="5"/>
@@ -5237,7 +5102,6 @@
       <c r="U138" s="6"/>
       <c r="V138" s="5"/>
       <c r="W138" s="6"/>
-      <c r="X138" s="6"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="5"/>
@@ -5263,7 +5127,6 @@
       <c r="U139" s="6"/>
       <c r="V139" s="5"/>
       <c r="W139" s="6"/>
-      <c r="X139" s="6"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="5"/>
@@ -5289,7 +5152,6 @@
       <c r="U140" s="6"/>
       <c r="V140" s="5"/>
       <c r="W140" s="6"/>
-      <c r="X140" s="6"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="5"/>
@@ -5315,7 +5177,6 @@
       <c r="U141" s="6"/>
       <c r="V141" s="5"/>
       <c r="W141" s="6"/>
-      <c r="X141" s="6"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="5"/>
@@ -5341,7 +5202,6 @@
       <c r="U142" s="6"/>
       <c r="V142" s="5"/>
       <c r="W142" s="6"/>
-      <c r="X142" s="6"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="5"/>
@@ -5367,7 +5227,6 @@
       <c r="U143" s="6"/>
       <c r="V143" s="5"/>
       <c r="W143" s="6"/>
-      <c r="X143" s="6"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="5"/>
@@ -5393,7 +5252,6 @@
       <c r="U144" s="6"/>
       <c r="V144" s="5"/>
       <c r="W144" s="6"/>
-      <c r="X144" s="6"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="5"/>
@@ -5419,7 +5277,6 @@
       <c r="U145" s="6"/>
       <c r="V145" s="5"/>
       <c r="W145" s="6"/>
-      <c r="X145" s="6"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="5"/>
@@ -5445,7 +5302,6 @@
       <c r="U146" s="6"/>
       <c r="V146" s="5"/>
       <c r="W146" s="6"/>
-      <c r="X146" s="6"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="5"/>
@@ -5471,7 +5327,6 @@
       <c r="U147" s="6"/>
       <c r="V147" s="5"/>
       <c r="W147" s="6"/>
-      <c r="X147" s="6"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="5"/>
@@ -5497,7 +5352,6 @@
       <c r="U148" s="6"/>
       <c r="V148" s="5"/>
       <c r="W148" s="6"/>
-      <c r="X148" s="6"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="5"/>
@@ -5523,7 +5377,6 @@
       <c r="U149" s="6"/>
       <c r="V149" s="5"/>
       <c r="W149" s="6"/>
-      <c r="X149" s="6"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="5"/>
@@ -5549,7 +5402,6 @@
       <c r="U150" s="6"/>
       <c r="V150" s="5"/>
       <c r="W150" s="6"/>
-      <c r="X150" s="6"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="5"/>
@@ -5575,7 +5427,6 @@
       <c r="U151" s="6"/>
       <c r="V151" s="5"/>
       <c r="W151" s="6"/>
-      <c r="X151" s="6"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="5"/>
@@ -5601,7 +5452,6 @@
       <c r="U152" s="6"/>
       <c r="V152" s="5"/>
       <c r="W152" s="6"/>
-      <c r="X152" s="6"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="5"/>
@@ -5627,7 +5477,6 @@
       <c r="U153" s="6"/>
       <c r="V153" s="5"/>
       <c r="W153" s="6"/>
-      <c r="X153" s="6"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="5"/>
@@ -5653,7 +5502,6 @@
       <c r="U154" s="6"/>
       <c r="V154" s="5"/>
       <c r="W154" s="6"/>
-      <c r="X154" s="6"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="5"/>
@@ -5679,7 +5527,6 @@
       <c r="U155" s="6"/>
       <c r="V155" s="5"/>
       <c r="W155" s="6"/>
-      <c r="X155" s="6"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="5"/>
@@ -5705,7 +5552,6 @@
       <c r="U156" s="6"/>
       <c r="V156" s="5"/>
       <c r="W156" s="6"/>
-      <c r="X156" s="6"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="5"/>
@@ -5731,7 +5577,6 @@
       <c r="U157" s="6"/>
       <c r="V157" s="5"/>
       <c r="W157" s="6"/>
-      <c r="X157" s="6"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="5"/>
@@ -5757,7 +5602,6 @@
       <c r="U158" s="6"/>
       <c r="V158" s="5"/>
       <c r="W158" s="6"/>
-      <c r="X158" s="6"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="5"/>
@@ -5783,7 +5627,6 @@
       <c r="U159" s="6"/>
       <c r="V159" s="5"/>
       <c r="W159" s="6"/>
-      <c r="X159" s="6"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="5"/>
@@ -5809,7 +5652,6 @@
       <c r="U160" s="6"/>
       <c r="V160" s="5"/>
       <c r="W160" s="6"/>
-      <c r="X160" s="6"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="5"/>
@@ -5835,7 +5677,6 @@
       <c r="U161" s="6"/>
       <c r="V161" s="5"/>
       <c r="W161" s="6"/>
-      <c r="X161" s="6"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="5"/>
@@ -5861,7 +5702,6 @@
       <c r="U162" s="6"/>
       <c r="V162" s="5"/>
       <c r="W162" s="6"/>
-      <c r="X162" s="6"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="5"/>
@@ -5887,7 +5727,6 @@
       <c r="U163" s="6"/>
       <c r="V163" s="5"/>
       <c r="W163" s="6"/>
-      <c r="X163" s="6"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="5"/>
@@ -5913,7 +5752,6 @@
       <c r="U164" s="6"/>
       <c r="V164" s="5"/>
       <c r="W164" s="6"/>
-      <c r="X164" s="6"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="5"/>
@@ -5939,7 +5777,6 @@
       <c r="U165" s="6"/>
       <c r="V165" s="5"/>
       <c r="W165" s="6"/>
-      <c r="X165" s="6"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="5"/>
@@ -5965,7 +5802,6 @@
       <c r="U166" s="6"/>
       <c r="V166" s="5"/>
       <c r="W166" s="6"/>
-      <c r="X166" s="6"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="5"/>
@@ -5991,7 +5827,6 @@
       <c r="U167" s="6"/>
       <c r="V167" s="5"/>
       <c r="W167" s="6"/>
-      <c r="X167" s="6"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="5"/>
@@ -6017,7 +5852,6 @@
       <c r="U168" s="6"/>
       <c r="V168" s="5"/>
       <c r="W168" s="6"/>
-      <c r="X168" s="6"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="5"/>
@@ -6043,7 +5877,6 @@
       <c r="U169" s="6"/>
       <c r="V169" s="5"/>
       <c r="W169" s="6"/>
-      <c r="X169" s="6"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="5"/>
@@ -6069,7 +5902,6 @@
       <c r="U170" s="6"/>
       <c r="V170" s="5"/>
       <c r="W170" s="6"/>
-      <c r="X170" s="6"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="5"/>
@@ -6095,7 +5927,6 @@
       <c r="U171" s="6"/>
       <c r="V171" s="5"/>
       <c r="W171" s="6"/>
-      <c r="X171" s="6"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="5"/>
@@ -6121,7 +5952,6 @@
       <c r="U172" s="6"/>
       <c r="V172" s="5"/>
       <c r="W172" s="6"/>
-      <c r="X172" s="6"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="5"/>
@@ -6147,7 +5977,6 @@
       <c r="U173" s="6"/>
       <c r="V173" s="5"/>
       <c r="W173" s="6"/>
-      <c r="X173" s="6"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="5"/>
@@ -6173,7 +6002,6 @@
       <c r="U174" s="6"/>
       <c r="V174" s="5"/>
       <c r="W174" s="6"/>
-      <c r="X174" s="6"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="5"/>
@@ -6199,7 +6027,6 @@
       <c r="U175" s="6"/>
       <c r="V175" s="5"/>
       <c r="W175" s="6"/>
-      <c r="X175" s="6"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="5"/>
@@ -6225,7 +6052,6 @@
       <c r="U176" s="6"/>
       <c r="V176" s="5"/>
       <c r="W176" s="6"/>
-      <c r="X176" s="6"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="5"/>
@@ -6251,7 +6077,6 @@
       <c r="U177" s="6"/>
       <c r="V177" s="5"/>
       <c r="W177" s="6"/>
-      <c r="X177" s="6"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="5"/>
@@ -6277,7 +6102,6 @@
       <c r="U178" s="6"/>
       <c r="V178" s="5"/>
       <c r="W178" s="6"/>
-      <c r="X178" s="6"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="5"/>
@@ -6303,7 +6127,6 @@
       <c r="U179" s="6"/>
       <c r="V179" s="5"/>
       <c r="W179" s="6"/>
-      <c r="X179" s="6"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="5"/>
@@ -6329,7 +6152,6 @@
       <c r="U180" s="6"/>
       <c r="V180" s="5"/>
       <c r="W180" s="6"/>
-      <c r="X180" s="6"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="5"/>
@@ -6355,7 +6177,6 @@
       <c r="U181" s="6"/>
       <c r="V181" s="5"/>
       <c r="W181" s="6"/>
-      <c r="X181" s="6"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="5"/>
@@ -6381,7 +6202,6 @@
       <c r="U182" s="6"/>
       <c r="V182" s="5"/>
       <c r="W182" s="6"/>
-      <c r="X182" s="6"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="5"/>
@@ -6407,7 +6227,6 @@
       <c r="U183" s="6"/>
       <c r="V183" s="5"/>
       <c r="W183" s="6"/>
-      <c r="X183" s="6"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="5"/>
@@ -6433,7 +6252,6 @@
       <c r="U184" s="6"/>
       <c r="V184" s="5"/>
       <c r="W184" s="6"/>
-      <c r="X184" s="6"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="5"/>
@@ -6459,7 +6277,6 @@
       <c r="U185" s="6"/>
       <c r="V185" s="5"/>
       <c r="W185" s="6"/>
-      <c r="X185" s="6"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="5"/>
@@ -6485,7 +6302,6 @@
       <c r="U186" s="6"/>
       <c r="V186" s="5"/>
       <c r="W186" s="6"/>
-      <c r="X186" s="6"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="5"/>
@@ -6511,7 +6327,6 @@
       <c r="U187" s="6"/>
       <c r="V187" s="5"/>
       <c r="W187" s="6"/>
-      <c r="X187" s="6"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="5"/>
@@ -6537,7 +6352,6 @@
       <c r="U188" s="6"/>
       <c r="V188" s="5"/>
       <c r="W188" s="6"/>
-      <c r="X188" s="6"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="5"/>
@@ -6563,7 +6377,6 @@
       <c r="U189" s="6"/>
       <c r="V189" s="5"/>
       <c r="W189" s="6"/>
-      <c r="X189" s="6"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="5"/>
@@ -6589,7 +6402,6 @@
       <c r="U190" s="6"/>
       <c r="V190" s="5"/>
       <c r="W190" s="6"/>
-      <c r="X190" s="6"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="5"/>
@@ -6615,7 +6427,6 @@
       <c r="U191" s="6"/>
       <c r="V191" s="5"/>
       <c r="W191" s="6"/>
-      <c r="X191" s="6"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="5"/>
@@ -6641,7 +6452,6 @@
       <c r="U192" s="6"/>
       <c r="V192" s="5"/>
       <c r="W192" s="6"/>
-      <c r="X192" s="6"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="5"/>
@@ -6667,7 +6477,6 @@
       <c r="U193" s="6"/>
       <c r="V193" s="5"/>
       <c r="W193" s="6"/>
-      <c r="X193" s="6"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="5"/>
@@ -6693,7 +6502,6 @@
       <c r="U194" s="6"/>
       <c r="V194" s="5"/>
       <c r="W194" s="6"/>
-      <c r="X194" s="6"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="5"/>
@@ -6719,7 +6527,6 @@
       <c r="U195" s="6"/>
       <c r="V195" s="5"/>
       <c r="W195" s="6"/>
-      <c r="X195" s="6"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="5"/>
@@ -6745,7 +6552,6 @@
       <c r="U196" s="6"/>
       <c r="V196" s="5"/>
       <c r="W196" s="6"/>
-      <c r="X196" s="6"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="5"/>
@@ -6771,7 +6577,6 @@
       <c r="U197" s="6"/>
       <c r="V197" s="5"/>
       <c r="W197" s="6"/>
-      <c r="X197" s="6"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="5"/>
@@ -6797,7 +6602,6 @@
       <c r="U198" s="6"/>
       <c r="V198" s="5"/>
       <c r="W198" s="6"/>
-      <c r="X198" s="6"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="5"/>
@@ -6823,7 +6627,6 @@
       <c r="U199" s="6"/>
       <c r="V199" s="5"/>
       <c r="W199" s="6"/>
-      <c r="X199" s="6"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="5"/>
@@ -6849,7 +6652,6 @@
       <c r="U200" s="6"/>
       <c r="V200" s="5"/>
       <c r="W200" s="6"/>
-      <c r="X200" s="6"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="5"/>
@@ -6875,7 +6677,6 @@
       <c r="U201" s="6"/>
       <c r="V201" s="5"/>
       <c r="W201" s="6"/>
-      <c r="X201" s="6"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="5"/>
@@ -6901,7 +6702,6 @@
       <c r="U202" s="6"/>
       <c r="V202" s="5"/>
       <c r="W202" s="6"/>
-      <c r="X202" s="6"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="5"/>
@@ -6927,7 +6727,6 @@
       <c r="U203" s="6"/>
       <c r="V203" s="5"/>
       <c r="W203" s="6"/>
-      <c r="X203" s="6"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="5"/>
@@ -6953,7 +6752,6 @@
       <c r="U204" s="6"/>
       <c r="V204" s="5"/>
       <c r="W204" s="6"/>
-      <c r="X204" s="6"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="5"/>
@@ -6979,7 +6777,6 @@
       <c r="U205" s="6"/>
       <c r="V205" s="5"/>
       <c r="W205" s="6"/>
-      <c r="X205" s="6"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="5"/>
@@ -7005,7 +6802,6 @@
       <c r="U206" s="6"/>
       <c r="V206" s="5"/>
       <c r="W206" s="6"/>
-      <c r="X206" s="6"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="5"/>
@@ -7031,7 +6827,6 @@
       <c r="U207" s="6"/>
       <c r="V207" s="5"/>
       <c r="W207" s="6"/>
-      <c r="X207" s="6"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="5"/>
@@ -7057,7 +6852,6 @@
       <c r="U208" s="6"/>
       <c r="V208" s="5"/>
       <c r="W208" s="6"/>
-      <c r="X208" s="6"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="5"/>
@@ -7083,7 +6877,6 @@
       <c r="U209" s="6"/>
       <c r="V209" s="5"/>
       <c r="W209" s="6"/>
-      <c r="X209" s="6"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="5"/>
@@ -7109,7 +6902,6 @@
       <c r="U210" s="6"/>
       <c r="V210" s="5"/>
       <c r="W210" s="6"/>
-      <c r="X210" s="6"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="5"/>
@@ -7135,7 +6927,6 @@
       <c r="U211" s="6"/>
       <c r="V211" s="5"/>
       <c r="W211" s="6"/>
-      <c r="X211" s="6"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="5"/>
@@ -7161,7 +6952,6 @@
       <c r="U212" s="6"/>
       <c r="V212" s="5"/>
       <c r="W212" s="6"/>
-      <c r="X212" s="6"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="5"/>
@@ -7187,7 +6977,6 @@
       <c r="U213" s="6"/>
       <c r="V213" s="5"/>
       <c r="W213" s="6"/>
-      <c r="X213" s="6"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="5"/>
@@ -7213,7 +7002,6 @@
       <c r="U214" s="6"/>
       <c r="V214" s="5"/>
       <c r="W214" s="6"/>
-      <c r="X214" s="6"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="5"/>
@@ -7239,7 +7027,6 @@
       <c r="U215" s="6"/>
       <c r="V215" s="5"/>
       <c r="W215" s="6"/>
-      <c r="X215" s="6"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="5"/>
@@ -7265,7 +7052,6 @@
       <c r="U216" s="6"/>
       <c r="V216" s="5"/>
       <c r="W216" s="6"/>
-      <c r="X216" s="6"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="5"/>
@@ -7291,7 +7077,6 @@
       <c r="U217" s="6"/>
       <c r="V217" s="5"/>
       <c r="W217" s="6"/>
-      <c r="X217" s="6"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="5"/>
@@ -7317,7 +7102,6 @@
       <c r="U218" s="6"/>
       <c r="V218" s="5"/>
       <c r="W218" s="6"/>
-      <c r="X218" s="6"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="5"/>
@@ -7343,7 +7127,6 @@
       <c r="U219" s="6"/>
       <c r="V219" s="5"/>
       <c r="W219" s="6"/>
-      <c r="X219" s="6"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="5"/>
@@ -7369,7 +7152,6 @@
       <c r="U220" s="6"/>
       <c r="V220" s="5"/>
       <c r="W220" s="6"/>
-      <c r="X220" s="6"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="5"/>
@@ -7395,7 +7177,6 @@
       <c r="U221" s="6"/>
       <c r="V221" s="5"/>
       <c r="W221" s="6"/>
-      <c r="X221" s="6"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="5"/>
@@ -7421,7 +7202,6 @@
       <c r="U222" s="6"/>
       <c r="V222" s="5"/>
       <c r="W222" s="6"/>
-      <c r="X222" s="6"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="5"/>
@@ -7447,7 +7227,6 @@
       <c r="U223" s="6"/>
       <c r="V223" s="5"/>
       <c r="W223" s="6"/>
-      <c r="X223" s="6"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="5"/>
@@ -7473,7 +7252,6 @@
       <c r="U224" s="6"/>
       <c r="V224" s="5"/>
       <c r="W224" s="6"/>
-      <c r="X224" s="6"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="5"/>
@@ -7499,7 +7277,6 @@
       <c r="U225" s="6"/>
       <c r="V225" s="5"/>
       <c r="W225" s="6"/>
-      <c r="X225" s="6"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="5"/>
@@ -7525,7 +7302,6 @@
       <c r="U226" s="6"/>
       <c r="V226" s="5"/>
       <c r="W226" s="6"/>
-      <c r="X226" s="6"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="5"/>
@@ -7551,7 +7327,6 @@
       <c r="U227" s="6"/>
       <c r="V227" s="5"/>
       <c r="W227" s="6"/>
-      <c r="X227" s="6"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="5"/>
@@ -7577,7 +7352,6 @@
       <c r="U228" s="6"/>
       <c r="V228" s="5"/>
       <c r="W228" s="6"/>
-      <c r="X228" s="6"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="5"/>
@@ -7603,7 +7377,6 @@
       <c r="U229" s="6"/>
       <c r="V229" s="5"/>
       <c r="W229" s="6"/>
-      <c r="X229" s="6"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="5"/>
@@ -7629,7 +7402,6 @@
       <c r="U230" s="6"/>
       <c r="V230" s="5"/>
       <c r="W230" s="6"/>
-      <c r="X230" s="6"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="5"/>
@@ -7655,7 +7427,6 @@
       <c r="U231" s="6"/>
       <c r="V231" s="5"/>
       <c r="W231" s="6"/>
-      <c r="X231" s="6"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="5"/>
@@ -7681,7 +7452,6 @@
       <c r="U232" s="6"/>
       <c r="V232" s="5"/>
       <c r="W232" s="6"/>
-      <c r="X232" s="6"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="5"/>
@@ -7707,7 +7477,6 @@
       <c r="U233" s="6"/>
       <c r="V233" s="5"/>
       <c r="W233" s="6"/>
-      <c r="X233" s="6"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="5"/>
@@ -7733,7 +7502,6 @@
       <c r="U234" s="6"/>
       <c r="V234" s="5"/>
       <c r="W234" s="6"/>
-      <c r="X234" s="6"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="5"/>
@@ -7759,7 +7527,6 @@
       <c r="U235" s="6"/>
       <c r="V235" s="5"/>
       <c r="W235" s="6"/>
-      <c r="X235" s="6"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="5"/>
@@ -7785,7 +7552,6 @@
       <c r="U236" s="6"/>
       <c r="V236" s="5"/>
       <c r="W236" s="6"/>
-      <c r="X236" s="6"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="5"/>
@@ -7811,7 +7577,6 @@
       <c r="U237" s="6"/>
       <c r="V237" s="5"/>
       <c r="W237" s="6"/>
-      <c r="X237" s="6"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="5"/>
@@ -7837,7 +7602,6 @@
       <c r="U238" s="6"/>
       <c r="V238" s="5"/>
       <c r="W238" s="6"/>
-      <c r="X238" s="6"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="5"/>
@@ -7863,7 +7627,6 @@
       <c r="U239" s="6"/>
       <c r="V239" s="5"/>
       <c r="W239" s="6"/>
-      <c r="X239" s="6"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="5"/>
@@ -7889,7 +7652,6 @@
       <c r="U240" s="6"/>
       <c r="V240" s="5"/>
       <c r="W240" s="6"/>
-      <c r="X240" s="6"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="5"/>
@@ -7915,7 +7677,6 @@
       <c r="U241" s="6"/>
       <c r="V241" s="5"/>
       <c r="W241" s="6"/>
-      <c r="X241" s="6"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="5"/>
@@ -7941,7 +7702,6 @@
       <c r="U242" s="6"/>
       <c r="V242" s="5"/>
       <c r="W242" s="6"/>
-      <c r="X242" s="6"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="5"/>
@@ -7967,7 +7727,6 @@
       <c r="U243" s="6"/>
       <c r="V243" s="5"/>
       <c r="W243" s="6"/>
-      <c r="X243" s="6"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="5"/>
@@ -7993,7 +7752,6 @@
       <c r="U244" s="6"/>
       <c r="V244" s="5"/>
       <c r="W244" s="6"/>
-      <c r="X244" s="6"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="5"/>
@@ -8019,7 +7777,6 @@
       <c r="U245" s="6"/>
       <c r="V245" s="5"/>
       <c r="W245" s="6"/>
-      <c r="X245" s="6"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="5"/>
@@ -8045,7 +7802,6 @@
       <c r="U246" s="6"/>
       <c r="V246" s="5"/>
       <c r="W246" s="6"/>
-      <c r="X246" s="6"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="5"/>
@@ -8071,7 +7827,6 @@
       <c r="U247" s="6"/>
       <c r="V247" s="5"/>
       <c r="W247" s="6"/>
-      <c r="X247" s="6"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="5"/>
@@ -8097,7 +7852,6 @@
       <c r="U248" s="6"/>
       <c r="V248" s="5"/>
       <c r="W248" s="6"/>
-      <c r="X248" s="6"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="5"/>
@@ -8123,7 +7877,6 @@
       <c r="U249" s="6"/>
       <c r="V249" s="5"/>
       <c r="W249" s="6"/>
-      <c r="X249" s="6"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="5"/>
@@ -8149,7 +7902,6 @@
       <c r="U250" s="6"/>
       <c r="V250" s="5"/>
       <c r="W250" s="6"/>
-      <c r="X250" s="6"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="5"/>
@@ -8175,7 +7927,6 @@
       <c r="U251" s="6"/>
       <c r="V251" s="5"/>
       <c r="W251" s="6"/>
-      <c r="X251" s="6"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="5"/>
@@ -8201,7 +7952,6 @@
       <c r="U252" s="6"/>
       <c r="V252" s="5"/>
       <c r="W252" s="6"/>
-      <c r="X252" s="6"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="5"/>
@@ -8227,7 +7977,6 @@
       <c r="U253" s="6"/>
       <c r="V253" s="5"/>
       <c r="W253" s="6"/>
-      <c r="X253" s="6"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="5"/>
@@ -8253,7 +8002,6 @@
       <c r="U254" s="6"/>
       <c r="V254" s="5"/>
       <c r="W254" s="6"/>
-      <c r="X254" s="6"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="5"/>
@@ -8279,7 +8027,6 @@
       <c r="U255" s="6"/>
       <c r="V255" s="5"/>
       <c r="W255" s="6"/>
-      <c r="X255" s="6"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="5"/>
@@ -8305,7 +8052,6 @@
       <c r="U256" s="6"/>
       <c r="V256" s="5"/>
       <c r="W256" s="6"/>
-      <c r="X256" s="6"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="5"/>
@@ -8331,7 +8077,6 @@
       <c r="U257" s="6"/>
       <c r="V257" s="5"/>
       <c r="W257" s="6"/>
-      <c r="X257" s="6"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="5"/>
@@ -8357,7 +8102,6 @@
       <c r="U258" s="6"/>
       <c r="V258" s="5"/>
       <c r="W258" s="6"/>
-      <c r="X258" s="6"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="5"/>
@@ -8383,7 +8127,6 @@
       <c r="U259" s="6"/>
       <c r="V259" s="5"/>
       <c r="W259" s="6"/>
-      <c r="X259" s="6"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="5"/>
@@ -8409,7 +8152,6 @@
       <c r="U260" s="6"/>
       <c r="V260" s="5"/>
       <c r="W260" s="6"/>
-      <c r="X260" s="6"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="5"/>
@@ -8435,7 +8177,6 @@
       <c r="U261" s="6"/>
       <c r="V261" s="5"/>
       <c r="W261" s="6"/>
-      <c r="X261" s="6"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="5"/>
@@ -8461,7 +8202,6 @@
       <c r="U262" s="6"/>
       <c r="V262" s="5"/>
       <c r="W262" s="6"/>
-      <c r="X262" s="6"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="5"/>
@@ -8487,7 +8227,6 @@
       <c r="U263" s="6"/>
       <c r="V263" s="5"/>
       <c r="W263" s="6"/>
-      <c r="X263" s="6"/>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="5"/>
@@ -8513,7 +8252,6 @@
       <c r="U264" s="6"/>
       <c r="V264" s="5"/>
       <c r="W264" s="6"/>
-      <c r="X264" s="6"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="5"/>
@@ -8539,7 +8277,6 @@
       <c r="U265" s="6"/>
       <c r="V265" s="5"/>
       <c r="W265" s="6"/>
-      <c r="X265" s="6"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="5"/>
@@ -8565,7 +8302,6 @@
       <c r="U266" s="6"/>
       <c r="V266" s="5"/>
       <c r="W266" s="6"/>
-      <c r="X266" s="6"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="5"/>
@@ -8591,7 +8327,6 @@
       <c r="U267" s="6"/>
       <c r="V267" s="5"/>
       <c r="W267" s="6"/>
-      <c r="X267" s="6"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="5"/>
@@ -8617,7 +8352,6 @@
       <c r="U268" s="6"/>
       <c r="V268" s="5"/>
       <c r="W268" s="6"/>
-      <c r="X268" s="6"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="5"/>
@@ -8643,7 +8377,6 @@
       <c r="U269" s="6"/>
       <c r="V269" s="5"/>
       <c r="W269" s="6"/>
-      <c r="X269" s="6"/>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="5"/>
@@ -8669,7 +8402,6 @@
       <c r="U270" s="6"/>
       <c r="V270" s="5"/>
       <c r="W270" s="6"/>
-      <c r="X270" s="6"/>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="5"/>
@@ -8695,7 +8427,6 @@
       <c r="U271" s="6"/>
       <c r="V271" s="5"/>
       <c r="W271" s="6"/>
-      <c r="X271" s="6"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="5"/>
@@ -8721,7 +8452,6 @@
       <c r="U272" s="6"/>
       <c r="V272" s="5"/>
       <c r="W272" s="6"/>
-      <c r="X272" s="6"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="5"/>
@@ -8747,7 +8477,6 @@
       <c r="U273" s="6"/>
       <c r="V273" s="5"/>
       <c r="W273" s="6"/>
-      <c r="X273" s="6"/>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="5"/>
@@ -8773,7 +8502,6 @@
       <c r="U274" s="6"/>
       <c r="V274" s="5"/>
       <c r="W274" s="6"/>
-      <c r="X274" s="6"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A275" s="5"/>
@@ -8799,7 +8527,6 @@
       <c r="U275" s="6"/>
       <c r="V275" s="5"/>
       <c r="W275" s="6"/>
-      <c r="X275" s="6"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="5"/>
@@ -8825,7 +8552,6 @@
       <c r="U276" s="6"/>
       <c r="V276" s="5"/>
       <c r="W276" s="6"/>
-      <c r="X276" s="6"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="5"/>
@@ -8851,7 +8577,6 @@
       <c r="U277" s="6"/>
       <c r="V277" s="5"/>
       <c r="W277" s="6"/>
-      <c r="X277" s="6"/>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="5"/>
@@ -8877,7 +8602,6 @@
       <c r="U278" s="6"/>
       <c r="V278" s="5"/>
       <c r="W278" s="6"/>
-      <c r="X278" s="6"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="5"/>
@@ -8903,7 +8627,6 @@
       <c r="U279" s="6"/>
       <c r="V279" s="5"/>
       <c r="W279" s="6"/>
-      <c r="X279" s="6"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="5"/>
@@ -8929,7 +8652,6 @@
       <c r="U280" s="6"/>
       <c r="V280" s="5"/>
       <c r="W280" s="6"/>
-      <c r="X280" s="6"/>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="5"/>
@@ -8955,7 +8677,6 @@
       <c r="U281" s="6"/>
       <c r="V281" s="5"/>
       <c r="W281" s="6"/>
-      <c r="X281" s="6"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="5"/>
@@ -8981,7 +8702,6 @@
       <c r="U282" s="6"/>
       <c r="V282" s="5"/>
       <c r="W282" s="6"/>
-      <c r="X282" s="6"/>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="5"/>
@@ -9007,7 +8727,6 @@
       <c r="U283" s="6"/>
       <c r="V283" s="5"/>
       <c r="W283" s="6"/>
-      <c r="X283" s="6"/>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="5"/>
@@ -9033,7 +8752,6 @@
       <c r="U284" s="6"/>
       <c r="V284" s="5"/>
       <c r="W284" s="6"/>
-      <c r="X284" s="6"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="5"/>
@@ -9059,7 +8777,6 @@
       <c r="U285" s="6"/>
       <c r="V285" s="5"/>
       <c r="W285" s="6"/>
-      <c r="X285" s="6"/>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A286" s="5"/>
@@ -9085,7 +8802,6 @@
       <c r="U286" s="6"/>
       <c r="V286" s="5"/>
       <c r="W286" s="6"/>
-      <c r="X286" s="6"/>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="5"/>
@@ -9111,7 +8827,6 @@
       <c r="U287" s="6"/>
       <c r="V287" s="5"/>
       <c r="W287" s="6"/>
-      <c r="X287" s="6"/>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="5"/>
@@ -9137,7 +8852,6 @@
       <c r="U288" s="6"/>
       <c r="V288" s="5"/>
       <c r="W288" s="6"/>
-      <c r="X288" s="6"/>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="5"/>
@@ -9163,7 +8877,6 @@
       <c r="U289" s="6"/>
       <c r="V289" s="5"/>
       <c r="W289" s="6"/>
-      <c r="X289" s="6"/>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A290" s="5"/>
@@ -9189,7 +8902,6 @@
       <c r="U290" s="6"/>
       <c r="V290" s="5"/>
       <c r="W290" s="6"/>
-      <c r="X290" s="6"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="5"/>
@@ -9215,7 +8927,6 @@
       <c r="U291" s="6"/>
       <c r="V291" s="5"/>
       <c r="W291" s="6"/>
-      <c r="X291" s="6"/>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="5"/>
@@ -9241,7 +8952,6 @@
       <c r="U292" s="6"/>
       <c r="V292" s="5"/>
       <c r="W292" s="6"/>
-      <c r="X292" s="6"/>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="5"/>
@@ -9267,7 +8977,6 @@
       <c r="U293" s="6"/>
       <c r="V293" s="5"/>
       <c r="W293" s="6"/>
-      <c r="X293" s="6"/>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="5"/>
@@ -9293,7 +9002,6 @@
       <c r="U294" s="6"/>
       <c r="V294" s="5"/>
       <c r="W294" s="6"/>
-      <c r="X294" s="6"/>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="5"/>
@@ -9319,7 +9027,6 @@
       <c r="U295" s="6"/>
       <c r="V295" s="5"/>
       <c r="W295" s="6"/>
-      <c r="X295" s="6"/>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="5"/>
@@ -9345,7 +9052,6 @@
       <c r="U296" s="6"/>
       <c r="V296" s="5"/>
       <c r="W296" s="6"/>
-      <c r="X296" s="6"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="5"/>
@@ -9371,7 +9077,6 @@
       <c r="U297" s="6"/>
       <c r="V297" s="5"/>
       <c r="W297" s="6"/>
-      <c r="X297" s="6"/>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="5"/>
@@ -9397,7 +9102,6 @@
       <c r="U298" s="6"/>
       <c r="V298" s="5"/>
       <c r="W298" s="6"/>
-      <c r="X298" s="6"/>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="5"/>
@@ -9423,7 +9127,6 @@
       <c r="U299" s="6"/>
       <c r="V299" s="5"/>
       <c r="W299" s="6"/>
-      <c r="X299" s="6"/>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="5"/>
@@ -9449,7 +9152,6 @@
       <c r="U300" s="6"/>
       <c r="V300" s="5"/>
       <c r="W300" s="6"/>
-      <c r="X300" s="6"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="5"/>
@@ -9475,7 +9177,6 @@
       <c r="U301" s="6"/>
       <c r="V301" s="5"/>
       <c r="W301" s="6"/>
-      <c r="X301" s="6"/>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="5"/>
@@ -9501,7 +9202,6 @@
       <c r="U302" s="6"/>
       <c r="V302" s="5"/>
       <c r="W302" s="6"/>
-      <c r="X302" s="6"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="5"/>
@@ -9527,7 +9227,6 @@
       <c r="U303" s="6"/>
       <c r="V303" s="5"/>
       <c r="W303" s="6"/>
-      <c r="X303" s="6"/>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="5"/>
@@ -9553,7 +9252,6 @@
       <c r="U304" s="6"/>
       <c r="V304" s="5"/>
       <c r="W304" s="6"/>
-      <c r="X304" s="6"/>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="5"/>
@@ -9579,7 +9277,6 @@
       <c r="U305" s="6"/>
       <c r="V305" s="5"/>
       <c r="W305" s="6"/>
-      <c r="X305" s="6"/>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="5"/>
@@ -9605,7 +9302,6 @@
       <c r="U306" s="6"/>
       <c r="V306" s="5"/>
       <c r="W306" s="6"/>
-      <c r="X306" s="6"/>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="5"/>
@@ -9631,7 +9327,6 @@
       <c r="U307" s="6"/>
       <c r="V307" s="5"/>
       <c r="W307" s="6"/>
-      <c r="X307" s="6"/>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="5"/>
@@ -9657,7 +9352,6 @@
       <c r="U308" s="6"/>
       <c r="V308" s="5"/>
       <c r="W308" s="6"/>
-      <c r="X308" s="6"/>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="5"/>
@@ -9683,7 +9377,6 @@
       <c r="U309" s="6"/>
       <c r="V309" s="5"/>
       <c r="W309" s="6"/>
-      <c r="X309" s="6"/>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="5"/>
@@ -9709,7 +9402,6 @@
       <c r="U310" s="6"/>
       <c r="V310" s="5"/>
       <c r="W310" s="6"/>
-      <c r="X310" s="6"/>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="5"/>
@@ -9735,7 +9427,6 @@
       <c r="U311" s="6"/>
       <c r="V311" s="5"/>
       <c r="W311" s="6"/>
-      <c r="X311" s="6"/>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A312" s="5"/>
@@ -9761,7 +9452,6 @@
       <c r="U312" s="6"/>
       <c r="V312" s="5"/>
       <c r="W312" s="6"/>
-      <c r="X312" s="6"/>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="5"/>
@@ -9787,7 +9477,6 @@
       <c r="U313" s="6"/>
       <c r="V313" s="5"/>
       <c r="W313" s="6"/>
-      <c r="X313" s="6"/>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="5"/>
@@ -9813,7 +9502,6 @@
       <c r="U314" s="6"/>
       <c r="V314" s="5"/>
       <c r="W314" s="6"/>
-      <c r="X314" s="6"/>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A315" s="5"/>
@@ -9839,7 +9527,6 @@
       <c r="U315" s="6"/>
       <c r="V315" s="5"/>
       <c r="W315" s="6"/>
-      <c r="X315" s="6"/>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A316" s="5"/>
@@ -9865,7 +9552,6 @@
       <c r="U316" s="6"/>
       <c r="V316" s="5"/>
       <c r="W316" s="6"/>
-      <c r="X316" s="6"/>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A317" s="5"/>
@@ -9891,7 +9577,6 @@
       <c r="U317" s="6"/>
       <c r="V317" s="5"/>
       <c r="W317" s="6"/>
-      <c r="X317" s="6"/>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A318" s="5"/>
@@ -9917,7 +9602,6 @@
       <c r="U318" s="6"/>
       <c r="V318" s="5"/>
       <c r="W318" s="6"/>
-      <c r="X318" s="6"/>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A319" s="5"/>
@@ -9943,7 +9627,6 @@
       <c r="U319" s="6"/>
       <c r="V319" s="5"/>
       <c r="W319" s="6"/>
-      <c r="X319" s="6"/>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A320" s="5"/>
@@ -9969,7 +9652,6 @@
       <c r="U320" s="6"/>
       <c r="V320" s="5"/>
       <c r="W320" s="6"/>
-      <c r="X320" s="6"/>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A321" s="5"/>
@@ -9995,7 +9677,6 @@
       <c r="U321" s="6"/>
       <c r="V321" s="5"/>
       <c r="W321" s="6"/>
-      <c r="X321" s="6"/>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A322" s="5"/>
@@ -10021,7 +9702,6 @@
       <c r="U322" s="6"/>
       <c r="V322" s="5"/>
       <c r="W322" s="6"/>
-      <c r="X322" s="6"/>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A323" s="5"/>
@@ -10047,7 +9727,6 @@
       <c r="U323" s="6"/>
       <c r="V323" s="5"/>
       <c r="W323" s="6"/>
-      <c r="X323" s="6"/>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A324" s="5"/>
@@ -10073,7 +9752,6 @@
       <c r="U324" s="6"/>
       <c r="V324" s="5"/>
       <c r="W324" s="6"/>
-      <c r="X324" s="6"/>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A325" s="5"/>
@@ -10099,7 +9777,6 @@
       <c r="U325" s="6"/>
       <c r="V325" s="5"/>
       <c r="W325" s="6"/>
-      <c r="X325" s="6"/>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A326" s="5"/>
@@ -10125,7 +9802,6 @@
       <c r="U326" s="6"/>
       <c r="V326" s="5"/>
       <c r="W326" s="6"/>
-      <c r="X326" s="6"/>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A327" s="5"/>
@@ -10151,7 +9827,6 @@
       <c r="U327" s="6"/>
       <c r="V327" s="5"/>
       <c r="W327" s="6"/>
-      <c r="X327" s="6"/>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A328" s="5"/>
@@ -10177,7 +9852,6 @@
       <c r="U328" s="6"/>
       <c r="V328" s="5"/>
       <c r="W328" s="6"/>
-      <c r="X328" s="6"/>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A329" s="5"/>
@@ -10203,7 +9877,6 @@
       <c r="U329" s="6"/>
       <c r="V329" s="5"/>
       <c r="W329" s="6"/>
-      <c r="X329" s="6"/>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A330" s="5"/>
@@ -10229,7 +9902,6 @@
       <c r="U330" s="6"/>
       <c r="V330" s="5"/>
       <c r="W330" s="6"/>
-      <c r="X330" s="6"/>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A331" s="5"/>
@@ -10255,7 +9927,6 @@
       <c r="U331" s="6"/>
       <c r="V331" s="5"/>
       <c r="W331" s="6"/>
-      <c r="X331" s="6"/>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A332" s="5"/>
@@ -10281,7 +9952,6 @@
       <c r="U332" s="6"/>
       <c r="V332" s="5"/>
       <c r="W332" s="6"/>
-      <c r="X332" s="6"/>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A333" s="5"/>
@@ -10307,7 +9977,6 @@
       <c r="U333" s="6"/>
       <c r="V333" s="5"/>
       <c r="W333" s="6"/>
-      <c r="X333" s="6"/>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A334" s="5"/>
@@ -10333,7 +10002,6 @@
       <c r="U334" s="6"/>
       <c r="V334" s="5"/>
       <c r="W334" s="6"/>
-      <c r="X334" s="6"/>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A335" s="5"/>
@@ -10359,7 +10027,6 @@
       <c r="U335" s="6"/>
       <c r="V335" s="5"/>
       <c r="W335" s="6"/>
-      <c r="X335" s="6"/>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A336" s="5"/>
@@ -10385,7 +10052,6 @@
       <c r="U336" s="6"/>
       <c r="V336" s="5"/>
       <c r="W336" s="6"/>
-      <c r="X336" s="6"/>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A337" s="5"/>
@@ -10411,7 +10077,6 @@
       <c r="U337" s="6"/>
       <c r="V337" s="5"/>
       <c r="W337" s="6"/>
-      <c r="X337" s="6"/>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A338" s="5"/>
@@ -10437,7 +10102,6 @@
       <c r="U338" s="6"/>
       <c r="V338" s="5"/>
       <c r="W338" s="6"/>
-      <c r="X338" s="6"/>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A339" s="5"/>
@@ -10463,7 +10127,6 @@
       <c r="U339" s="6"/>
       <c r="V339" s="5"/>
       <c r="W339" s="6"/>
-      <c r="X339" s="6"/>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A340" s="5"/>
@@ -10489,7 +10152,6 @@
       <c r="U340" s="6"/>
       <c r="V340" s="5"/>
       <c r="W340" s="6"/>
-      <c r="X340" s="6"/>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A341" s="5"/>
@@ -10515,7 +10177,6 @@
       <c r="U341" s="6"/>
       <c r="V341" s="5"/>
       <c r="W341" s="6"/>
-      <c r="X341" s="6"/>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A342" s="5"/>
@@ -10541,7 +10202,6 @@
       <c r="U342" s="6"/>
       <c r="V342" s="5"/>
       <c r="W342" s="6"/>
-      <c r="X342" s="6"/>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="5"/>
@@ -10567,7 +10227,6 @@
       <c r="U343" s="6"/>
       <c r="V343" s="5"/>
       <c r="W343" s="6"/>
-      <c r="X343" s="6"/>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A344" s="5"/>
@@ -10593,7 +10252,6 @@
       <c r="U344" s="6"/>
       <c r="V344" s="5"/>
       <c r="W344" s="6"/>
-      <c r="X344" s="6"/>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A345" s="5"/>
@@ -10619,7 +10277,6 @@
       <c r="U345" s="6"/>
       <c r="V345" s="5"/>
       <c r="W345" s="6"/>
-      <c r="X345" s="6"/>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A346" s="5"/>
@@ -10645,7 +10302,6 @@
       <c r="U346" s="6"/>
       <c r="V346" s="5"/>
       <c r="W346" s="6"/>
-      <c r="X346" s="6"/>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="5"/>
@@ -10671,7 +10327,6 @@
       <c r="U347" s="6"/>
       <c r="V347" s="5"/>
       <c r="W347" s="6"/>
-      <c r="X347" s="6"/>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A348" s="5"/>
@@ -10697,7 +10352,6 @@
       <c r="U348" s="6"/>
       <c r="V348" s="5"/>
       <c r="W348" s="6"/>
-      <c r="X348" s="6"/>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A349" s="5"/>
@@ -10723,7 +10377,6 @@
       <c r="U349" s="6"/>
       <c r="V349" s="5"/>
       <c r="W349" s="6"/>
-      <c r="X349" s="6"/>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A350" s="5"/>
@@ -10749,7 +10402,6 @@
       <c r="U350" s="6"/>
       <c r="V350" s="5"/>
       <c r="W350" s="6"/>
-      <c r="X350" s="6"/>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A351" s="5"/>
@@ -10775,7 +10427,6 @@
       <c r="U351" s="6"/>
       <c r="V351" s="5"/>
       <c r="W351" s="6"/>
-      <c r="X351" s="6"/>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A352" s="5"/>
@@ -10801,7 +10452,6 @@
       <c r="U352" s="6"/>
       <c r="V352" s="5"/>
       <c r="W352" s="6"/>
-      <c r="X352" s="6"/>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A353" s="5"/>
@@ -10827,7 +10477,6 @@
       <c r="U353" s="6"/>
       <c r="V353" s="5"/>
       <c r="W353" s="6"/>
-      <c r="X353" s="6"/>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A354" s="5"/>
@@ -10853,7 +10502,6 @@
       <c r="U354" s="6"/>
       <c r="V354" s="5"/>
       <c r="W354" s="6"/>
-      <c r="X354" s="6"/>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="5"/>
@@ -10879,7 +10527,6 @@
       <c r="U355" s="6"/>
       <c r="V355" s="5"/>
       <c r="W355" s="6"/>
-      <c r="X355" s="6"/>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A356" s="5"/>
@@ -10905,7 +10552,6 @@
       <c r="U356" s="6"/>
       <c r="V356" s="5"/>
       <c r="W356" s="6"/>
-      <c r="X356" s="6"/>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A357" s="5"/>
@@ -10931,7 +10577,6 @@
       <c r="U357" s="6"/>
       <c r="V357" s="5"/>
       <c r="W357" s="6"/>
-      <c r="X357" s="6"/>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A358" s="5"/>
@@ -10957,7 +10602,6 @@
       <c r="U358" s="6"/>
       <c r="V358" s="5"/>
       <c r="W358" s="6"/>
-      <c r="X358" s="6"/>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A359" s="5"/>
@@ -10983,7 +10627,6 @@
       <c r="U359" s="6"/>
       <c r="V359" s="5"/>
       <c r="W359" s="6"/>
-      <c r="X359" s="6"/>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A360" s="5"/>
@@ -11009,7 +10652,6 @@
       <c r="U360" s="6"/>
       <c r="V360" s="5"/>
       <c r="W360" s="6"/>
-      <c r="X360" s="6"/>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="5"/>
@@ -11035,7 +10677,6 @@
       <c r="U361" s="6"/>
       <c r="V361" s="5"/>
       <c r="W361" s="6"/>
-      <c r="X361" s="6"/>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="5"/>
@@ -11061,7 +10702,6 @@
       <c r="U362" s="6"/>
       <c r="V362" s="5"/>
       <c r="W362" s="6"/>
-      <c r="X362" s="6"/>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A363" s="5"/>
@@ -11087,7 +10727,6 @@
       <c r="U363" s="6"/>
       <c r="V363" s="5"/>
       <c r="W363" s="6"/>
-      <c r="X363" s="6"/>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A364" s="5"/>
@@ -11113,7 +10752,6 @@
       <c r="U364" s="6"/>
       <c r="V364" s="5"/>
       <c r="W364" s="6"/>
-      <c r="X364" s="6"/>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A365" s="5"/>
@@ -11139,7 +10777,6 @@
       <c r="U365" s="6"/>
       <c r="V365" s="5"/>
       <c r="W365" s="6"/>
-      <c r="X365" s="6"/>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A366" s="5"/>
@@ -11165,7 +10802,6 @@
       <c r="U366" s="6"/>
       <c r="V366" s="5"/>
       <c r="W366" s="6"/>
-      <c r="X366" s="6"/>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A367" s="5"/>
@@ -11191,7 +10827,6 @@
       <c r="U367" s="6"/>
       <c r="V367" s="5"/>
       <c r="W367" s="6"/>
-      <c r="X367" s="6"/>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A368" s="5"/>
@@ -11217,7 +10852,6 @@
       <c r="U368" s="6"/>
       <c r="V368" s="5"/>
       <c r="W368" s="6"/>
-      <c r="X368" s="6"/>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A369" s="5"/>
@@ -11243,7 +10877,6 @@
       <c r="U369" s="6"/>
       <c r="V369" s="5"/>
       <c r="W369" s="6"/>
-      <c r="X369" s="6"/>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A370" s="5"/>
@@ -11269,7 +10902,6 @@
       <c r="U370" s="6"/>
       <c r="V370" s="5"/>
       <c r="W370" s="6"/>
-      <c r="X370" s="6"/>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A371" s="5"/>
@@ -11295,7 +10927,6 @@
       <c r="U371" s="6"/>
       <c r="V371" s="5"/>
       <c r="W371" s="6"/>
-      <c r="X371" s="6"/>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A372" s="5"/>
@@ -11321,7 +10952,6 @@
       <c r="U372" s="6"/>
       <c r="V372" s="5"/>
       <c r="W372" s="6"/>
-      <c r="X372" s="6"/>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A373" s="5"/>
@@ -11347,7 +10977,6 @@
       <c r="U373" s="6"/>
       <c r="V373" s="5"/>
       <c r="W373" s="6"/>
-      <c r="X373" s="6"/>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A374" s="5"/>
@@ -11373,7 +11002,6 @@
       <c r="U374" s="6"/>
       <c r="V374" s="5"/>
       <c r="W374" s="6"/>
-      <c r="X374" s="6"/>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A375" s="5"/>
@@ -11399,7 +11027,6 @@
       <c r="U375" s="6"/>
       <c r="V375" s="5"/>
       <c r="W375" s="6"/>
-      <c r="X375" s="6"/>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A376" s="5"/>
@@ -11425,7 +11052,6 @@
       <c r="U376" s="6"/>
       <c r="V376" s="5"/>
       <c r="W376" s="6"/>
-      <c r="X376" s="6"/>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A377" s="5"/>
@@ -11451,7 +11077,6 @@
       <c r="U377" s="6"/>
       <c r="V377" s="5"/>
       <c r="W377" s="6"/>
-      <c r="X377" s="6"/>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A378" s="5"/>
@@ -11477,7 +11102,6 @@
       <c r="U378" s="6"/>
       <c r="V378" s="5"/>
       <c r="W378" s="6"/>
-      <c r="X378" s="6"/>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A379" s="5"/>
@@ -11503,7 +11127,6 @@
       <c r="U379" s="6"/>
       <c r="V379" s="5"/>
       <c r="W379" s="6"/>
-      <c r="X379" s="6"/>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A380" s="5"/>
@@ -11529,7 +11152,6 @@
       <c r="U380" s="6"/>
       <c r="V380" s="5"/>
       <c r="W380" s="6"/>
-      <c r="X380" s="6"/>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A381" s="5"/>
@@ -11555,7 +11177,6 @@
       <c r="U381" s="6"/>
       <c r="V381" s="5"/>
       <c r="W381" s="6"/>
-      <c r="X381" s="6"/>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A382" s="5"/>
@@ -11581,7 +11202,6 @@
       <c r="U382" s="6"/>
       <c r="V382" s="5"/>
       <c r="W382" s="6"/>
-      <c r="X382" s="6"/>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A383" s="5"/>
@@ -11592,7 +11212,7 @@
       <c r="F383" s="6"/>
       <c r="G383" s="5"/>
       <c r="H383" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I383" s="6"/>
       <c r="J383" s="6"/>
@@ -11609,7 +11229,6 @@
       <c r="U383" s="6"/>
       <c r="V383" s="5"/>
       <c r="W383" s="6"/>
-      <c r="X383" s="6"/>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A384" s="5"/>
@@ -11635,7 +11254,6 @@
       <c r="U384" s="6"/>
       <c r="V384" s="5"/>
       <c r="W384" s="6"/>
-      <c r="X384" s="6"/>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A385" s="5"/>
@@ -11661,7 +11279,6 @@
       <c r="U385" s="6"/>
       <c r="V385" s="5"/>
       <c r="W385" s="6"/>
-      <c r="X385" s="6"/>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="5"/>
@@ -11687,7 +11304,6 @@
       <c r="U386" s="6"/>
       <c r="V386" s="5"/>
       <c r="W386" s="6"/>
-      <c r="X386" s="6"/>
     </row>
     <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A387" s="5"/>
@@ -11713,7 +11329,6 @@
       <c r="U387" s="6"/>
       <c r="V387" s="5"/>
       <c r="W387" s="6"/>
-      <c r="X387" s="6"/>
     </row>
     <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A388" s="5"/>
@@ -11739,7 +11354,6 @@
       <c r="U388" s="6"/>
       <c r="V388" s="5"/>
       <c r="W388" s="6"/>
-      <c r="X388" s="6"/>
     </row>
     <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A389" s="5"/>
@@ -11765,7 +11379,6 @@
       <c r="U389" s="6"/>
       <c r="V389" s="5"/>
       <c r="W389" s="6"/>
-      <c r="X389" s="6"/>
     </row>
     <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A390" s="5"/>
@@ -11791,7 +11404,6 @@
       <c r="U390" s="6"/>
       <c r="V390" s="5"/>
       <c r="W390" s="6"/>
-      <c r="X390" s="6"/>
     </row>
     <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A391" s="5"/>
@@ -11817,7 +11429,6 @@
       <c r="U391" s="6"/>
       <c r="V391" s="5"/>
       <c r="W391" s="6"/>
-      <c r="X391" s="6"/>
     </row>
     <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A392" s="2"/>
@@ -16748,7 +16359,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.02"/>
@@ -16764,16 +16375,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>10</v>
@@ -16793,2736 +16404,2736 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="I6" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="I7" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="I9" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="I11" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="8"/>
       <c r="I13" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="8"/>
       <c r="I14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="C15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="C16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>97</v>
       </c>
       <c r="C17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="C18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>101</v>
       </c>
       <c r="C19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>103</v>
       </c>
       <c r="C20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>105</v>
       </c>
       <c r="C21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="C22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="C23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="C24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="C25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C37" s="8"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C38" s="8"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>127</v>
       </c>
       <c r="C39" s="8"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="C40" s="8"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>131</v>
       </c>
       <c r="C41" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="C42" s="8"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>135</v>
       </c>
       <c r="C43" s="8"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="C44" s="8"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="C45" s="8"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>141</v>
       </c>
       <c r="C46" s="8"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>143</v>
       </c>
       <c r="C47" s="8"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>145</v>
       </c>
       <c r="C48" s="8"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>147</v>
       </c>
       <c r="C49" s="8"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C50" s="8"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C51" s="8"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C52" s="8"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C53" s="8"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C54" s="8"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C55" s="8"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C56" s="8"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="8"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C58" s="8"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C59" s="8"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C60" s="8"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C61" s="8"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C62" s="8"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B63" s="8" t="s">
         <v>160</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>161</v>
       </c>
       <c r="C63" s="8"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B64" s="8" t="s">
         <v>162</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>163</v>
       </c>
       <c r="C64" s="8"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B65" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>165</v>
       </c>
       <c r="C65" s="8"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>166</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>167</v>
       </c>
       <c r="C66" s="8"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B67" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>169</v>
       </c>
       <c r="C67" s="8"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B68" s="8" t="s">
         <v>170</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>171</v>
       </c>
       <c r="C68" s="8"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B69" s="8" t="s">
         <v>172</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>173</v>
       </c>
       <c r="C69" s="8"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B70" s="8" t="s">
         <v>174</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>175</v>
       </c>
       <c r="C70" s="8"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B71" s="8" t="s">
         <v>176</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>177</v>
       </c>
       <c r="C71" s="8"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>178</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>179</v>
       </c>
       <c r="C72" s="8"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B73" s="8" t="s">
         <v>180</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>181</v>
       </c>
       <c r="C73" s="8"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C74" s="8"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C75" s="8"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C76" s="8"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C77" s="8"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C78" s="8"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C79" s="8"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C80" s="8"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C81" s="8"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C82" s="8"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C83" s="8"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C84" s="8"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C85" s="8"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C86" s="8"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B87" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>195</v>
       </c>
       <c r="C87" s="8"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B88" s="8" t="s">
         <v>196</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>197</v>
       </c>
       <c r="C88" s="8"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B89" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>199</v>
       </c>
       <c r="C89" s="8"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B90" s="8" t="s">
         <v>200</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>201</v>
       </c>
       <c r="C90" s="8"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B91" s="8" t="s">
         <v>202</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>203</v>
       </c>
       <c r="C91" s="8"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B92" s="8" t="s">
         <v>204</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>205</v>
       </c>
       <c r="C92" s="8"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B93" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>207</v>
       </c>
       <c r="C93" s="8"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B94" s="8" t="s">
         <v>208</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>209</v>
       </c>
       <c r="C94" s="8"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B95" s="8" t="s">
         <v>210</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>211</v>
       </c>
       <c r="C95" s="8"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B96" s="8" t="s">
         <v>212</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>213</v>
       </c>
       <c r="C96" s="8"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B97" s="8" t="s">
         <v>214</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>215</v>
       </c>
       <c r="C97" s="8"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B98" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C98" s="8"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B99" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C99" s="8"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B100" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C100" s="8"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B101" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C101" s="8"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B102" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C102" s="8"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B103" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C103" s="8"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B104" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C104" s="8"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B105" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C105" s="8"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B106" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C106" s="8"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B107" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C107" s="8"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B108" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C108" s="8"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B109" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C109" s="8"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B110" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C110" s="8"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B111" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C111" s="8"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B112" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C112" s="8"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B113" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C113" s="8"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B114" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C114" s="8"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B115" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C115" s="8"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B116" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C116" s="8"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B117" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C117" s="8"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B118" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C118" s="8"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B119" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C119" s="8"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B120" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C120" s="8"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C121" s="8"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B122" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C122" s="8"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B123" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C123" s="8"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B124" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C124" s="8"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B125" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C125" s="8"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B126" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C126" s="8"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B127" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C127" s="8"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B128" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C128" s="8"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B129" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C129" s="8"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B130" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C130" s="8"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B131" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C131" s="8"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B132" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C132" s="8"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B133" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C133" s="8"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B134" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C134" s="8"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B135" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C135" s="8"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B136" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C136" s="8"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B137" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C137" s="8"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B138" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C138" s="8"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B139" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C139" s="8"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B140" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C140" s="8"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B141" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C141" s="8"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B142" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C142" s="8"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B143" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C143" s="8"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B144" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C144" s="8"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B145" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C145" s="8"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B146" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C146" s="8"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B147" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C147" s="8"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B148" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C148" s="8"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B149" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C149" s="8"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B150" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C150" s="8"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B151" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C151" s="8"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B152" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C152" s="8"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B153" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C153" s="8"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B154" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C154" s="8"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B155" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C155" s="8"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B156" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C156" s="8"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B157" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C157" s="8"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B158" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C158" s="8"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B159" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C159" s="8"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B160" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C160" s="8"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B161" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C161" s="8"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B162" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C162" s="8"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B163" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C163" s="8"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B164" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C164" s="8"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B165" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C165" s="8"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B166" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C166" s="8"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B167" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C167" s="8"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B168" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C168" s="8"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B169" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C169" s="8"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B170" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C170" s="8"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B171" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C171" s="8"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B172" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C172" s="8"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B173" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C173" s="8"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B174" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C174" s="8"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B175" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C175" s="8"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B176" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C176" s="8"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B177" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C177" s="8"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B178" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C178" s="8"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B179" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C179" s="8"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B180" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C180" s="8"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B181" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C181" s="8"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B182" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C182" s="8"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B183" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C183" s="8"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B184" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C184" s="8"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B185" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C185" s="8"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B186" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C186" s="8"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B187" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C187" s="8"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B188" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C188" s="8"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B189" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C189" s="8"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B190" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C190" s="8"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B191" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C191" s="8"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B192" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C192" s="8"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B193" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C193" s="8"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B194" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C194" s="8"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B195" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C195" s="8"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B196" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C196" s="8"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B197" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C197" s="8"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B198" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C198" s="8"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B199" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C199" s="8"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B200" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C200" s="8"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B201" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C201" s="8"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B202" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C202" s="8"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B203" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C203" s="8"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B204" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C204" s="8"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B205" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C205" s="8"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B206" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C206" s="8"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B207" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C207" s="8"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B208" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C208" s="8"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B209" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C209" s="8"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B210" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C210" s="8"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B211" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C211" s="8"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B212" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C212" s="8"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B213" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C213" s="8"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B214" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C214" s="8"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B215" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C215" s="8"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B216" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C216" s="8"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B217" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C217" s="8"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B218" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C218" s="8"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B219" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C219" s="8"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B220" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C220" s="8"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B221" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C221" s="8"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B222" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C222" s="8"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B223" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C223" s="8"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B224" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C224" s="8"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B225" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C225" s="8"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B226" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C226" s="8"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B227" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C227" s="8"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B228" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C228" s="8"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B229" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C229" s="8"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B230" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C230" s="8"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B231" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C231" s="8"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B232" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C232" s="8"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B233" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C233" s="8"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B234" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C234" s="8"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B235" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C235" s="8"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B236" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C236" s="8"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B237" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C237" s="8"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B238" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C238" s="8"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B239" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C239" s="8"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B240" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C240" s="8"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B241" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C241" s="8"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B242" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C242" s="8"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B243" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C243" s="8"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B244" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C244" s="8"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B245" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C245" s="8"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B246" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C246" s="8"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B247" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C247" s="8"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B248" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C248" s="8"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B249" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C249" s="8"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B250" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C250" s="8"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B251" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C251" s="8"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B252" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C252" s="8"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B253" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C253" s="8"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B254" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C254" s="8"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B255" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C255" s="8"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B256" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C256" s="8"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B257" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C257" s="8"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B258" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C258" s="8"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B259" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C259" s="8"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B260" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C260" s="8"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B261" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C261" s="8"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B262" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C262" s="8"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B263" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C263" s="8"/>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B264" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C264" s="8"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B265" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C265" s="8"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B266" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C266" s="8"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B267" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C267" s="8"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B268" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C268" s="8"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B269" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C269" s="8"/>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B270" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C270" s="8"/>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B271" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C271" s="8"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B272" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C272" s="8"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B273" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C273" s="8"/>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B274" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C274" s="8"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B275" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C275" s="8"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B276" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C276" s="8"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B277" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C277" s="8"/>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B278" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C278" s="8"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B279" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C279" s="8"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B280" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C280" s="8"/>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B281" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C281" s="8"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B282" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C282" s="8"/>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B283" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C283" s="8"/>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B284" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C284" s="8"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B285" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C285" s="8"/>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B286" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C286" s="8"/>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B287" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C287" s="8"/>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B288" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C288" s="8"/>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B289" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C289" s="8"/>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B290" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C290" s="8"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B291" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C291" s="8"/>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B292" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C292" s="8"/>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B293" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C293" s="8"/>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B294" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C294" s="8"/>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B295" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C295" s="8"/>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B296" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C296" s="8"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B297" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C297" s="8"/>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B298" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C298" s="8"/>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B299" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C299" s="8"/>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B300" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C300" s="8"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B301" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C301" s="8"/>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B302" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C302" s="8"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B303" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C303" s="8"/>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B304" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C304" s="8"/>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B305" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C305" s="8"/>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B306" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C306" s="8"/>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B307" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C307" s="8"/>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B308" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C308" s="8"/>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B309" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C309" s="8"/>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B310" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C310" s="8"/>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B311" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C311" s="8"/>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B312" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C312" s="8"/>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B313" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C313" s="8"/>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B314" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C314" s="8"/>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B315" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C315" s="8"/>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B316" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C316" s="8"/>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B317" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C317" s="8"/>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B318" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C318" s="8"/>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B319" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C319" s="8"/>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B320" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C320" s="8"/>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B321" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C321" s="8"/>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B322" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C322" s="8"/>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B323" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C323" s="8"/>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B324" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C324" s="8"/>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B325" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C325" s="8"/>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B326" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C326" s="8"/>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B327" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C327" s="8"/>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B328" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C328" s="8"/>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B329" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C329" s="8"/>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B330" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C330" s="8"/>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B331" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C331" s="8"/>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B332" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C332" s="8"/>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B333" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C333" s="8"/>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B334" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C334" s="8"/>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B335" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C335" s="8"/>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B336" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C336" s="8"/>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B337" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C337" s="8"/>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B338" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C338" s="8"/>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B339" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C339" s="8"/>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B340" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C340" s="8"/>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B341" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C341" s="8"/>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B342" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C342" s="8"/>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B343" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C343" s="8"/>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B344" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C344" s="8"/>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B345" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C345" s="8"/>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B346" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C346" s="8"/>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B347" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C347" s="8"/>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B348" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C348" s="8"/>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B349" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C349" s="8"/>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B350" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C350" s="8"/>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B351" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C351" s="8"/>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B352" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C352" s="8"/>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B353" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C353" s="8"/>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B354" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C354" s="8"/>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B355" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C355" s="8"/>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B356" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C356" s="8"/>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B357" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C357" s="8"/>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B358" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C358" s="8"/>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B359" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C359" s="8"/>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B360" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C360" s="8"/>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B361" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C361" s="8"/>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B362" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C362" s="8"/>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B363" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C363" s="8"/>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B364" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C364" s="8"/>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B365" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C365" s="8"/>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B366" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C366" s="8"/>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B367" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C367" s="8"/>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B368" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C368" s="8"/>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B369" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C369" s="8"/>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B370" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C370" s="8"/>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B371" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C371" s="8"/>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B372" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C372" s="8"/>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B373" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C373" s="8"/>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B374" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C374" s="8"/>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B375" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C375" s="8"/>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B376" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C376" s="8"/>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B377" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C377" s="8"/>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B378" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C378" s="8"/>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B379" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C379" s="8"/>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B380" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C380" s="8"/>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B381" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C381" s="8"/>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B382" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C382" s="8"/>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B383" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C383" s="8"/>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B384" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C384" s="8"/>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B385" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C385" s="8"/>
     </row>

--- a/backend/fms_core/static/submission_templates/Sample_submission_vtest.xlsx
+++ b/backend/fms_core/static/submission_templates/Sample_submission_vtest.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="455">
   <si>
     <t xml:space="preserve">Sample Submission Template</t>
   </si>
@@ -128,25 +128,25 @@
     <t xml:space="preserve">Comment</t>
   </si>
   <si>
+    <t xml:space="preserve">96-Coord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">384-Coord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tube strip-Coord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biospecimen Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tube</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96-Coord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">384-Coord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tube strip-Coord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biospecimen Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA</t>
   </si>
   <si>
     <t xml:space="preserve">M</t>
@@ -1675,7 +1675,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.16"/>
@@ -11211,9 +11211,7 @@
       <c r="E383" s="6"/>
       <c r="F383" s="6"/>
       <c r="G383" s="5"/>
-      <c r="H383" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="H383" s="5"/>
       <c r="I383" s="6"/>
       <c r="J383" s="6"/>
       <c r="K383" s="6"/>
@@ -16320,10 +16318,6 @@
       <formula1>Index!$I$2:$I$14</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="Coordinate" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L8:L391" type="list">
-      <formula1>IF(OR($I8="Tube",$I8="96-well plate"),Index!$A$2:$A$97,IF($I8="384-well plate",Index!$B$2:$B$385,""))</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="T15:T391" type="none">
       <formula1>Index!$G$2:$G$4</formula1>
       <formula2>0</formula2>
@@ -16333,7 +16327,11 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" prompt="Coordinate" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G8:G391" type="list">
-      <formula1>IF(OR($H383="Tube",$H383="96-well plate"),Index!$A$2:$A$97,IF($H383="384-well plate",Index!$B$2:$B$385,IF(OR($H383="Tube Strip 2x1", $H383="Tube Strip 3x1", $H383="Tube Strip 4x1", $H383="Tube Strip 5x1", $H383="Tube Strip 6x1", $H383="Tube Strip 7x1", $H383="Tube Strip 8x1"),Index!$C$2:$C$9,"")))</formula1>
+      <formula1>IF(OR($H13="Tube",$H13="96-well plate"),Index!$A$2:$A$97,IF($H13="384-well plate",Index!$B$2:$B$385,IF(OR($H13="Tube Strip 2x1", $H13="Tube Strip 3x1", $H13="Tube Strip 4x1", $H13="Tube Strip 5x1", $H13="Tube Strip 6x1", $H13="Tube Strip 7x1", $H13="Tube Strip 8x1"),Index!$C$2:$C$9,"")))</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" prompt="Coordinate" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L8:L391" type="list">
+      <formula1>Index!$B$2:$B$385</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -16359,7 +16357,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.02"/>
@@ -16375,16 +16373,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>10</v>
@@ -16404,19 +16402,19 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>33</v>

--- a/backend/fms_core/static/submission_templates/Sample_submission_vtest.xlsx
+++ b/backend/fms_core/static/submission_templates/Sample_submission_vtest.xlsx
@@ -23,7 +23,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>UFG</author>
   </authors>
   <commentList>
     <comment ref="U7" authorId="0">
@@ -1675,7 +1675,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.16"/>
@@ -16326,12 +16326,12 @@
       <formula1>Index!$E$2:$E$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="Coordinate" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G8:G391" type="list">
-      <formula1>IF(OR($H13="Tube",$H13="96-well plate"),Index!$A$2:$A$97,IF($H13="384-well plate",Index!$B$2:$B$385,IF(OR($H13="Tube Strip 2x1", $H13="Tube Strip 3x1", $H13="Tube Strip 4x1", $H13="Tube Strip 5x1", $H13="Tube Strip 6x1", $H13="Tube Strip 7x1", $H13="Tube Strip 8x1"),Index!$C$2:$C$9,"")))</formula1>
+    <dataValidation allowBlank="true" operator="between" prompt="Coordinate" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L8:L391" type="list">
+      <formula1>Index!$B$2:$B$385</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="Coordinate" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L8:L391" type="list">
-      <formula1>Index!$B$2:$B$385</formula1>
+    <dataValidation allowBlank="true" operator="between" prompt="Coordinate" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G8:G391" type="list">
+      <formula1>IF($H8="96-well plate",Index!$A$2:$A$97,IF($H8="384-well plate",Index!$B$2:$B$385,IF(OR($H8="Tube Strip 2x1", $H8="Tube Strip 3x1", $H8="Tube Strip 4x1", $H8="Tube Strip 5x1", $H8="Tube Strip 6x1", $H8="Tube Strip 7x1", $H8="Tube Strip 8x1"),Index!$C$2:$C$9,"")))</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -16357,7 +16357,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.02"/>
